--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints0.100000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints0.100000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>2.622055212733065e-193</v>
+        <v>1.51119485959119e-193</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>2.464914781405222e-193</v>
+        <v>1.420676725428359e-193</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>2.314464579089878e-193</v>
+        <v>1.334071454095595e-193</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>2.170556287561243e-193</v>
+        <v>1.251290635608746e-193</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>2.033041588593529e-193</v>
+        <v>1.17224585998366e-193</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>1.90177216396095e-193</v>
+        <v>1.096848717236182e-193</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>1.776599695437719e-193</v>
+        <v>1.025010797382162e-193</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>1.657375864798046e-193</v>
+        <v>9.566436904374454e-194</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>1.543952353816145e-193</v>
+        <v>8.91658986417881e-194</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>1.436180844266229e-193</v>
+        <v>8.299682753393159e-194</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>1.333913017922558e-193</v>
+        <v>7.714831472176252e-194</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>1.237000556559246e-193</v>
+        <v>7.161151920685998e-194</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>1.145295141950556e-193</v>
+        <v>6.637759999081159e-194</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0586484558707e-193</v>
+        <v>6.143771607520211e-194</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>9.769121800938911e-194</v>
+        <v>5.678302646161628e-194</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>8.99937996394342e-194</v>
+        <v>5.240469015163887e-194</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>8.275775865462648e-194</v>
+        <v>4.829386614685461e-194</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>7.596826323238717e-194</v>
+        <v>4.444171344884823e-194</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>6.961048155013758e-194</v>
+        <v>4.083939105920449e-194</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>6.366958178529895e-194</v>
+        <v>3.747805797950814e-194</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>5.81307321152925e-194</v>
+        <v>3.434887321134391e-194</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>5.297910071753951e-194</v>
+        <v>3.144299575629656e-194</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>4.819985576946122e-194</v>
+        <v>2.875158461595082e-194</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>4.377816544847885e-194</v>
+        <v>2.626579879189144e-194</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>3.969919793201368e-194</v>
+        <v>2.397679728570318e-194</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>3.594812139748696e-194</v>
+        <v>2.187573909897076e-194</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>3.251010402231992e-194</v>
+        <v>1.995378323327894e-194</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>2.937031398393383e-194</v>
+        <v>1.820208869021246e-194</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>2.651391945975125e-194</v>
+        <v>1.66118144713568e-194</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>2.392608862719067e-194</v>
+        <v>1.517411957829518e-194</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>2.159198966367477e-194</v>
+        <v>1.388016301261312e-194</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>1.949679074662483e-194</v>
+        <v>1.27211037758954e-194</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>1.762566005346209e-194</v>
+        <v>1.168810086972675e-194</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>1.596376576160778e-194</v>
+        <v>1.077231329569191e-194</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>1.449627604848318e-194</v>
+        <v>9.964900055375635e-195</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>1.320835909150951e-194</v>
+        <v>9.257020150362665e-195</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>1.208518306810804e-194</v>
+        <v>8.639832582237742e-195</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>1.111191615570001e-194</v>
+        <v>8.104496352585617e-195</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>1.027372653170667e-194</v>
+        <v>7.64217046299103e-195</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>9.555782373549276e-195</v>
+        <v>7.244013915038731e-195</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>8.94325185864907e-195</v>
+        <v>6.901185710313459e-195</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>8.421303164427305e-195</v>
+        <v>6.604844850399962e-195</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>7.97510446830523e-195</v>
+        <v>6.346150336882987e-195</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>7.58982394770409e-195</v>
+        <v>6.116261171347272e-195</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>7.250629780045139e-195</v>
+        <v>5.906336355377571e-195</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>6.942690142749629e-195</v>
+        <v>5.707534890558625e-195</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>6.651173213238804e-195</v>
+        <v>5.511015778475176e-195</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>6.3612667021009e-195</v>
+        <v>5.30795072537443e-195</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>6.062918028256835e-195</v>
+        <v>5.092607222624722e-195</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>5.757015368024182e-195</v>
+        <v>4.866368792997045e-195</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>5.445978351756116e-195</v>
+        <v>4.631615039754256e-195</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>5.132226609805819e-195</v>
+        <v>4.390725566159205e-195</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>4.818179772526465e-195</v>
+        <v>4.146079975474751e-195</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>4.506257470271237e-195</v>
+        <v>3.900057870963749e-195</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>4.198879333393311e-195</v>
+        <v>3.655038855889053e-195</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>3.898464992245864e-195</v>
+        <v>3.413402533513517e-195</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>3.607434077182075e-195</v>
+        <v>3.177528507099997e-195</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>3.328206218555125e-195</v>
+        <v>2.949796379911348e-195</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>3.063201046718189e-195</v>
+        <v>2.732585755210425e-195</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>2.814838192024446e-195</v>
+        <v>2.528276236260083e-195</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>2.585537284827075e-195</v>
+        <v>2.339247426323177e-195</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>2.377717955479254e-195</v>
+        <v>2.167878928662561e-195</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>2.193799834334161e-195</v>
+        <v>2.016550346541091e-195</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>2.036202551744974e-195</v>
+        <v>1.887641283221622e-195</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>1.907345738064871e-195</v>
+        <v>1.783531341967009e-195</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>1.809649023647071e-195</v>
+        <v>1.706600126040136e-195</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>1.745173569047276e-195</v>
+        <v>1.658892040653273e-195</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>1.712139164783482e-195</v>
+        <v>1.638859501519577e-195</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>1.706433729823019e-195</v>
+        <v>1.642774437171597e-195</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>1.723912397772709e-195</v>
+        <v>1.6668781191967e-195</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>1.760430302239374e-195</v>
+        <v>1.707411819182252e-195</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>1.811842576829833e-195</v>
+        <v>1.76061680871562e-195</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>1.874004355150909e-195</v>
+        <v>1.82273435938417e-195</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>1.942770770809421e-195</v>
+        <v>1.890005742775267e-195</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>2.013996957412192e-195</v>
+        <v>1.958672230476279e-195</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>2.083538048566042e-195</v>
+        <v>2.024975094074571e-195</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>2.14724917787779e-195</v>
+        <v>2.08515560515751e-195</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>2.200985478954261e-195</v>
+        <v>2.135455035312463e-195</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>2.240602085402272e-195</v>
+        <v>2.172114656126794e-195</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>2.261954130828646e-195</v>
+        <v>2.191375739187871e-195</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>2.261223281349386e-195</v>
+        <v>2.189778986137109e-195</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>2.238284649643713e-195</v>
+        <v>2.167251986208904e-195</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>2.195348435019569e-195</v>
+        <v>2.12586360123927e-195</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>2.134661663397427e-195</v>
+        <v>2.067716463038934e-195</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>2.058471360697798e-195</v>
+        <v>1.994913203418669e-195</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>1.969024552841081e-195</v>
+        <v>1.909556454189134e-195</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>1.86856826574778e-195</v>
+        <v>1.813748847161092e-195</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>1.759349525338367e-195</v>
+        <v>1.709593014145274e-195</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>1.643615357533314e-195</v>
+        <v>1.59919158695241e-195</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>1.523612788253093e-195</v>
+        <v>1.484647197393232e-195</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>1.401588843418175e-195</v>
+        <v>1.368062477278472e-195</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>1.279790548949033e-195</v>
+        <v>1.251540058418859e-195</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>1.160464930766138e-195</v>
+        <v>1.137182572625126e-195</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>1.045859014789963e-195</v>
+        <v>1.027092651708002e-195</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>9.381001071349253e-196</v>
+        <v>9.23262483536543e-196</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>8.378848011190278e-196</v>
+        <v>8.263643944977827e-196</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>7.449678016406754e-196</v>
+        <v>7.36201799867806e-196</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>6.590872465251896e-196</v>
+        <v>6.525628314628113e-196</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>5.799812735978928e-196</v>
+        <v>5.752356210989977e-196</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>5.073880206841071e-196</v>
+        <v>5.04008300592564e-196</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>4.410456256091544e-196</v>
+        <v>4.386690017597089e-196</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>3.806922261983569e-196</v>
+        <v>3.790058564166313e-196</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>3.260659602770616e-196</v>
+        <v>3.248069963795549e-196</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>2.769049656705378e-196</v>
+        <v>2.758605534646261e-196</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>2.329473802041356e-196</v>
+        <v>2.319546594880714e-196</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>1.939313417031769e-196</v>
+        <v>1.928774462660895e-196</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>1.595949879929836e-196</v>
+        <v>1.584170456148791e-196</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>1.296764568988781e-196</v>
+        <v>1.283615893506393e-196</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>1.039138862461823e-196</v>
+        <v>1.024992092895687e-196</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>8.204589675651977e-197</v>
+        <v>8.06151762897638e-197</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>6.381789170207963e-197</v>
+        <v>6.245457744123799e-197</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>4.898027788799195e-197</v>
+        <v>4.773285599937766e-197</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>3.728357885817056e-197</v>
+        <v>3.616476359122579e-197</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>2.844482066972455e-197</v>
+        <v>2.743626100053873e-197</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>2.198768368242093e-197</v>
+        <v>2.106712980769597e-197</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>1.736662963933483e-197</v>
+        <v>1.65176587016457e-197</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>1.403603238165303e-197</v>
+        <v>1.324806082031019e-197</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>1.145261143588891e-197</v>
+        <v>1.072086740901707e-197</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>9.253833546047031e-198</v>
+        <v>8.577231908753344e-198</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>7.383127386652883e-198</v>
+        <v>6.760672535889015e-198</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>5.813506400655031e-198</v>
+        <v>5.243944450892869e-198</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>4.517984031002597e-198</v>
+        <v>3.999802814234242e-198</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>3.469573720642895e-198</v>
+        <v>3.001002786380729e-198</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>2.641288912525175e-198</v>
+        <v>2.220299527801786e-198</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>2.006143049597998e-198</v>
+        <v>1.630448198966206e-198</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>1.537149574809919e-198</v>
+        <v>1.204203960342778e-198</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>1.207321931109499e-198</v>
+        <v>9.143219724002936e-199</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>9.896735614452943e-199</v>
+        <v>7.335573956075427e-199</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>8.572179087658643e-199</v>
+        <v>6.346653904333162e-199</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>7.829684160197674e-199</v>
+        <v>5.904011173464046e-199</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>7.399385261555617e-199</v>
+        <v>5.735197368155989e-199</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>7.011470950888477e-199</v>
+        <v>5.567820024081884e-199</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>6.471025269799944e-199</v>
+        <v>5.206874513790865e-199</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>5.806663283921359e-199</v>
+        <v>4.688325847237263e-199</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>5.088518994375028e-199</v>
+        <v>4.091039627335664e-199</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>4.386726402283259e-199</v>
+        <v>3.493881457000651e-199</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>3.769480336225701e-199</v>
+        <v>2.973551975053671e-199</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>3.264336894657529e-199</v>
+        <v>2.561381235917525e-199</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>2.860299927682668e-199</v>
+        <v>2.245658135193853e-199</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>2.544851772658841e-199</v>
+        <v>2.012972895266507e-199</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>2.30547476694334e-199</v>
+        <v>1.849915738519024e-199</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>2.129651247893927e-199</v>
+        <v>1.743076887335289e-199</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>2.004863552868191e-199</v>
+        <v>1.679046564099062e-199</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>1.918594019223723e-199</v>
+        <v>1.644414991194097e-199</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>1.858324984318113e-199</v>
+        <v>1.625772391004151e-199</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>1.811540003508569e-199</v>
+        <v>1.60971047146048e-199</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>1.768393705313916e-199</v>
+        <v>1.586078746159598e-199</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>1.727375489636909e-199</v>
+        <v>1.554892330233531e-199</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>1.688595913871462e-199</v>
+        <v>1.518143602535442e-199</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>1.652165535411488e-199</v>
+        <v>1.477824941918497e-199</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>1.618194911650901e-199</v>
+        <v>1.435928727235859e-199</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>1.586794599983614e-199</v>
+        <v>1.394447337340693e-199</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>1.558075157803541e-199</v>
+        <v>1.355373151086161e-199</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>1.532147142504596e-199</v>
+        <v>1.32069854732543e-199</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>1.509121111480692e-199</v>
+        <v>1.292415904911662e-199</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>1.489072361366079e-199</v>
+        <v>1.272233532966502e-199</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>1.471841775264748e-199</v>
+        <v>1.25997124503644e-199</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>1.457174609100486e-199</v>
+        <v>1.254678457556084e-199</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>1.444815836710996e-199</v>
+        <v>1.25540231440219e-199</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>1.434510431933988e-199</v>
+        <v>1.261189959451508e-199</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>1.42600336860716e-199</v>
+        <v>1.2710885365808e-199</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>1.41903962056822e-199</v>
+        <v>1.28414518966682e-199</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>1.413364161654875e-199</v>
+        <v>1.299407062586322e-199</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>1.408721965704831e-199</v>
+        <v>1.315921299216063e-199</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>1.404858006555794e-199</v>
+        <v>1.332735043432798e-199</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>1.401517258045468e-199</v>
+        <v>1.34889543911328e-199</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>1.398444694011558e-199</v>
+        <v>1.363449630134267e-199</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>1.395385288291772e-199</v>
+        <v>1.375444760372514e-199</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>1.392083898209812e-199</v>
+        <v>1.383928052968373e-199</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>1.388124168720714e-199</v>
+        <v>1.38805640262216e-199</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>1.382608594719771e-199</v>
+        <v>1.387314026795247e-199</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>1.374550301680828e-199</v>
+        <v>1.381245940293175e-199</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>1.362962415077736e-199</v>
+        <v>1.369397157921487e-199</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>1.346858060384341e-199</v>
+        <v>1.351312694485726e-199</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>1.325250363074493e-199</v>
+        <v>1.326537564791433e-199</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>1.29715244862204e-199</v>
+        <v>1.294616783644153e-199</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>1.261577442500848e-199</v>
+        <v>1.255095365849448e-199</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>1.217538470184732e-199</v>
+        <v>1.207518326212822e-199</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>1.16407450491375e-199</v>
+        <v>1.151449943495651e-199</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>1.101349852332839e-199</v>
+        <v>1.087293189968136e-199</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>1.031064467675763e-199</v>
+        <v>1.016595534705519e-199</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>9.550287116048374e-200</v>
+        <v>9.409867303073251e-200</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>8.75052944782378e-200</v>
+        <v>8.620965293730805e-200</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>7.929475278706998e-200</v>
+        <v>7.815546845023109e-200</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>7.105228215321178e-200</v>
+        <v>7.009909482945419e-200</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>6.295891864289476e-200</v>
+        <v>6.220350733493001e-200</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>5.519569832235044e-200</v>
+        <v>5.463168122661105e-200</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>4.794357813549939e-200</v>
+        <v>4.754652127020041e-200</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>4.133323472440538e-200</v>
+        <v>4.106613485245418e-200</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>3.535894604222335e-200</v>
+        <v>3.518710455758637e-200</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>2.999208325075643e-200</v>
+        <v>2.988560409844885e-200</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>2.52040175118078e-200</v>
+        <v>2.51378071878935e-200</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>2.096611998718062e-200</v>
+        <v>2.091988753877224e-200</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>1.724976183867802e-200</v>
+        <v>1.720801886393691e-200</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>1.402631422810317e-200</v>
+        <v>1.397837487623943e-200</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>1.126714831725924e-200</v>
+        <v>1.120712928853167e-200</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>8.943635267950382e-201</v>
+        <v>8.870455813666546e-201</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>7.025632095124377e-201</v>
+        <v>6.942408672753429e-201</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>5.474323832755389e-201</v>
+        <v>5.384903111075717e-201</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>4.247813580617954e-201</v>
+        <v>4.155540304864765e-201</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>3.304200740330061e-201</v>
+        <v>3.211916253699323e-201</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>2.6015847135097e-201</v>
+        <v>2.511626957158139e-201</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>2.098064901774859e-201</v>
+        <v>2.012268414819961e-201</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>1.751740706743527e-201</v>
+        <v>1.671436626263538e-201</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>1.520711530033695e-201</v>
+        <v>1.446727591067618e-201</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>1.36307677326335e-201</v>
+        <v>1.295737308810948e-201</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>1.237544844256812e-201</v>
+        <v>1.176678393289328e-201</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>1.121294167189737e-201</v>
+        <v>1.066464211350028e-201</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>1.012856446347225e-201</v>
+        <v>9.636281658256454e-202</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>9.119528512611156e-202</v>
+        <v>8.679079841914594e-202</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>8.183045514632476e-202</v>
+        <v>7.790413939227467e-202</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>7.316327164854602e-202</v>
+        <v>6.967661224947849e-202</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>6.516585158595926e-202</v>
+        <v>6.208198973828515e-202</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>5.781031191175178e-202</v>
+        <v>5.509404460622565e-202</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>5.106876957910039e-202</v>
+        <v>4.868654960082093e-202</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>4.491334154119272e-202</v>
+        <v>4.283327746960228e-202</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>3.931614475121267e-202</v>
+        <v>3.750800096009746e-202</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>3.424929616234417e-202</v>
+        <v>3.26844928198342e-202</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>2.968491272777111e-202</v>
+        <v>2.833652579634026e-202</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>2.559511140067743e-202</v>
+        <v>2.443787263714336e-202</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>2.195200913424701e-202</v>
+        <v>2.096230608977127e-202</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>1.872772288166377e-202</v>
+        <v>1.788359890175171e-202</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>1.589436959611163e-202</v>
+        <v>1.517552382061243e-202</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>1.34240662307745e-202</v>
+        <v>1.281185359388119e-202</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>1.128892973883628e-202</v>
+        <v>1.076636096908571e-202</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>9.461077073480897e-203</v>
+        <v>9.012818693753748e-203</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>7.912625187892253e-203</v>
+        <v>7.524999515413043e-203</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>6.615691035254256e-203</v>
+        <v>6.276676181591337e-203</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>5.542391568750825e-203</v>
+        <v>5.241621439816379e-203</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>4.664843741565866e-203</v>
+        <v>4.393608037615909e-203</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>3.955164506883294e-203</v>
+        <v>3.706408722517672e-203</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>3.385470817887017e-203</v>
+        <v>3.153796242049411e-203</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>2.927879627760947e-203</v>
+        <v>2.709543343738869e-203</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>2.554507889689161e-203</v>
+        <v>2.347422775113951e-203</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>2.237611877777646e-203</v>
+        <v>2.041336785459411e-203</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>1.958620524297249e-203</v>
+        <v>1.773713804702829e-203</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>1.713668925774919e-203</v>
+        <v>1.540651954889011e-203</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>1.500216099577124e-203</v>
+        <v>1.339479970610578e-203</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>1.315721063070333e-203</v>
+        <v>1.167526586460156e-203</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>1.157642833621015e-203</v>
+        <v>1.022120537030365e-203</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>1.023440428595637e-203</v>
+        <v>9.005905569138288e-204</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>9.10572865360669e-204</v>
+        <v>8.002653807031706e-204</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>8.164991612825787e-204</v>
+        <v>7.184737429910125e-204</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>7.38678333727835e-204</v>
+        <v>6.525443783699777e-204</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>6.745694000629064e-204</v>
+        <v>5.998060214326889e-204</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>6.216313776542611e-204</v>
+        <v>5.575874067717687e-204</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>5.773232838683679e-204</v>
+        <v>5.232172689798402e-204</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>5.391041360716951e-204</v>
+        <v>4.940243426495258e-204</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>5.044447349064568e-204</v>
+        <v>4.673501606796777e-204</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>4.716878876847857e-204</v>
+        <v>4.414833787078952e-204</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>4.406325437007253e-204</v>
+        <v>4.162942287856797e-204</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>4.112159795837554e-204</v>
+        <v>3.918031860410046e-204</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>3.833754719634003e-204</v>
+        <v>3.680307256018794e-204</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>3.570482974691701e-204</v>
+        <v>3.449973225963017e-204</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>3.321717327305739e-204</v>
+        <v>3.227234521522691e-204</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>3.086830543771214e-204</v>
+        <v>3.01229589397779e-204</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>2.86519539038322e-204</v>
+        <v>2.805362094608288e-204</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>2.656184633436853e-204</v>
+        <v>2.606637874694161e-204</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>2.459171039227206e-204</v>
+        <v>2.416327985515383e-204</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>2.273527374049375e-204</v>
+        <v>2.234637178351927e-204</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>2.098626404198455e-204</v>
+        <v>2.061770204483771e-204</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>1.93384089596954e-204</v>
+        <v>1.897931815190887e-204</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>1.778549673382961e-204</v>
+        <v>1.743317453146345e-204</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>1.632286964888259e-204</v>
+        <v>1.597883758719206e-204</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>1.494751897136359e-204</v>
+        <v>1.461333981364154e-204</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>1.365651555351011e-204</v>
+        <v>1.333359140990444e-204</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>1.244693024755964e-204</v>
+        <v>1.213650257507329e-204</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>1.131583390574966e-204</v>
+        <v>1.101898350824062e-204</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>1.026029738031767e-204</v>
+        <v>9.977944408498988e-205</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>9.277391523501168e-205</v>
+        <v>9.010295474940925e-205</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>8.364187187537635e-205</v>
+        <v>8.112946906658972e-205</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>7.517755224664571e-205</v>
+        <v>7.282808902745666e-205</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>6.735166487119464e-205</v>
+        <v>6.516791662293551e-205</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>6.013491827139805e-205</v>
+        <v>5.811805384395163e-205</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>5.349802096963089e-205</v>
+        <v>5.164760268143043e-205</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>4.741168148826809e-205</v>
+        <v>4.572566512629732e-205</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>4.184660834968454e-205</v>
+        <v>4.032134316947768e-205</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>3.677351007625984e-205</v>
+        <v>3.540373880190143e-205</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>3.216309519035487e-205</v>
+        <v>3.094195401448038e-205</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>2.798607221436246e-205</v>
+        <v>2.690509079815724e-205</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>2.421314967064476e-205</v>
+        <v>2.326225114384508e-205</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>2.081558104645052e-205</v>
+        <v>1.998320892562264e-205</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>1.777030588148272e-205</v>
+        <v>1.704474830950403e-205</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>1.505764570462877e-205</v>
+        <v>1.442782309090662e-205</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>1.265796683518206e-205</v>
+        <v>1.211344228700737e-205</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>1.055163559243597e-205</v>
+        <v>1.008261491498322e-205</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>8.719018295683894e-206</v>
+        <v>8.316349992011133e-206</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>7.140481264219217e-206</v>
+        <v>6.795656535268075e-206</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>5.796390817335328e-206</v>
+        <v>5.501543561931e-206</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>4.667113274325612e-206</v>
+        <v>4.415020089176867e-206</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>3.733014954483461e-206</v>
+        <v>3.517095134182634e-206</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>2.974462177102259e-206</v>
+        <v>2.788777714125259e-206</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>2.371821261475395e-206</v>
+        <v>2.211076846181699e-206</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>1.905458526896257e-206</v>
+        <v>1.765001547528914e-206</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>1.555740292658233e-206</v>
+        <v>1.431560835343861e-206</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>1.30303287805471e-206</v>
+        <v>1.191763726803498e-206</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>1.127702602379076e-206</v>
+        <v>1.026619239084783e-206</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>1.010115784924718e-206</v>
+        <v>9.17136389364675e-207</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>9.306387449850254e-207</v>
+        <v>8.443241948201319e-207</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>8.69662725358584e-207</v>
+        <v>7.892157865741484e-207</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>8.130724746775414e-207</v>
+        <v>7.381593628787008e-207</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>7.591141081484942e-207</v>
+        <v>6.894629696931739e-207</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>7.077226516214524e-207</v>
+        <v>6.430687048404726e-207</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>6.58833130946425e-207</v>
+        <v>5.989186661435009e-207</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>6.123805719734209e-207</v>
+        <v>5.569549514251642e-207</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>5.683000005524496e-207</v>
+        <v>5.171196585083667e-207</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>5.265264425335204e-207</v>
+        <v>4.793548852160131e-207</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>4.86994923766642e-207</v>
+        <v>4.43602729371008e-207</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>4.496404701018242e-207</v>
+        <v>4.098052887962562e-207</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>4.143981073890758e-207</v>
+        <v>3.779046613146621e-207</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>3.812028614784062e-207</v>
+        <v>3.478429447491304e-207</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>3.499897582198244e-207</v>
+        <v>3.195622369225659e-207</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>3.206938234633397e-207</v>
+        <v>2.93004635657873e-207</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>2.932500830589613e-207</v>
+        <v>2.681122387779564e-207</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>2.675935628567225e-207</v>
+        <v>2.448271441057425e-207</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>2.436592887065603e-207</v>
+        <v>2.230914494640706e-207</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>2.213822864585769e-207</v>
+        <v>2.028472526759297e-207</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>2.006975819627143e-207</v>
+        <v>1.840366515641632e-207</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>1.815402010690039e-207</v>
+        <v>1.666017439516962e-207</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>1.638451696274552e-207</v>
+        <v>1.504846276614333e-207</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>1.475475134880772e-207</v>
+        <v>1.356274005162792e-207</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>1.325822585008791e-207</v>
+        <v>1.219721603391385e-207</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>1.188844305158702e-207</v>
+        <v>1.094610049529158e-207</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>1.063890553830596e-207</v>
+        <v>9.803603218051568e-208</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>9.503115895245664e-208</v>
+        <v>8.763933984484287e-208</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>8.474576707407035e-208</v>
+        <v>7.821302576880187e-208</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>7.546790559791003e-208</v>
+        <v>6.969918777529743e-208</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>6.713260037398482e-208</v>
+        <v>6.203992368723409e-208</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>5.967487725230398e-208</v>
+        <v>5.517733132751652e-208</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>5.302976208287666e-208</v>
+        <v>4.905350851904935e-208</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>4.713228071571206e-208</v>
+        <v>4.361055308473718e-208</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>4.19174590008194e-208</v>
+        <v>3.879056284748465e-208</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>3.732032278820786e-208</v>
+        <v>3.453563563019638e-208</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>3.327589792788664e-208</v>
+        <v>3.078786925577699e-208</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>2.971921026986495e-208</v>
+        <v>2.748936154713114e-208</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>2.658528566415198e-208</v>
+        <v>2.458221032716342e-208</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>2.380914996075693e-208</v>
+        <v>2.200851341877848e-208</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>2.132909051434183e-208</v>
+        <v>1.971321490484536e-208</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>1.911377929689686e-208</v>
+        <v>1.766777501002679e-208</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>1.714842220110949e-208</v>
+        <v>1.585808283201953e-208</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>1.541839064932118e-208</v>
+        <v>1.427017192345057e-208</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>1.390905606387338e-208</v>
+        <v>1.289007583694689e-208</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>1.260578986710756e-208</v>
+        <v>1.170382812513548e-208</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>1.149396348136518e-208</v>
+        <v>1.069746234064333e-208</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>1.05589483289877e-208</v>
+        <v>9.857012036097417e-209</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>9.786115832316572e-209</v>
+        <v>9.168510764124735e-209</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>9.160837413693259e-209</v>
+        <v>8.617992077352271e-209</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>8.668484495459221e-209</v>
+        <v>8.191489528407006e-209</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>8.294428499955916e-209</v>
+        <v>7.87503666991593e-209</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>8.02404084952481e-209</v>
+        <v>7.654667054506033e-209</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>7.842692966507354e-209</v>
+        <v>7.516414234804294e-209</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>7.735756273245086e-209</v>
+        <v>7.446311763437742e-209</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>7.688602192079244e-209</v>
+        <v>7.430393193033248e-209</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>7.686602145351494e-209</v>
+        <v>7.454692076217877e-209</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>7.715127555403226e-209</v>
+        <v>7.505241965618631e-209</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>7.759549844575924e-209</v>
+        <v>7.568076413862493e-209</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>7.805240435211048e-209</v>
+        <v>7.629228973576449e-209</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>7.837570749650058e-209</v>
+        <v>7.674733197387488e-209</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>7.84191221023441e-209</v>
+        <v>7.69062263792259e-209</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>7.803636239305565e-209</v>
+        <v>7.662930847808748e-209</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>7.708137554124977e-209</v>
+        <v>7.577713876753336e-209</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>7.546895169756025e-209</v>
+        <v>7.426903688045371e-209</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>7.325574140939606e-209</v>
+        <v>7.216132419739219e-209</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>7.051857425062774e-209</v>
+        <v>6.952981000357916e-209</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>6.733427979512589e-209</v>
+        <v>6.645030358424504e-209</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>6.377968761676103e-209</v>
+        <v>6.299861422462024e-209</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>5.993162728940365e-209</v>
+        <v>5.925055120993509e-209</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>5.586692838692436e-209</v>
+        <v>5.528192382542001e-209</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>5.166242048319365e-209</v>
+        <v>5.11685413563054e-209</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>4.739493315208207e-209</v>
+        <v>4.69862130878216e-209</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>4.314129596746019e-209</v>
+        <v>4.281074830519903e-209</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>3.89783385031985e-209</v>
+        <v>3.871795629366806e-209</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>3.498289033316756e-209</v>
+        <v>3.478364633845909e-209</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>3.123178103123795e-209</v>
+        <v>3.108362772480251e-209</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>2.780105082049893e-209</v>
+        <v>2.769293921992773e-209</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>2.472629240031559e-209</v>
+        <v>2.464713708738529e-209</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>2.198408656368052e-209</v>
+        <v>2.192417362400739e-209</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>1.954634500282321e-209</v>
+        <v>1.949744342392698e-209</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>1.738497940997318e-209</v>
+        <v>1.734034108127702e-209</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>1.547190147735993e-209</v>
+        <v>1.542626119019047e-209</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>1.377902289721297e-209</v>
+        <v>1.372859834480029e-209</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>1.227825536176181e-209</v>
+        <v>1.222074713923944e-209</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>1.094151056323595e-209</v>
+        <v>1.087610216764088e-209</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>9.740700193864896e-210</v>
+        <v>9.668058024137574e-210</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>8.64988799282848e-210</v>
+        <v>8.572002830461549e-210</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>7.657790243411712e-210</v>
+        <v>7.576897948959283e-210</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>6.759230596391843e-210</v>
+        <v>6.677362241992136e-210</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>5.949052921363813e-210</v>
+        <v>5.868033301425051e-210</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>5.222101087922557e-210</v>
+        <v>5.143548719122971e-210</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>4.573218965663012e-210</v>
+        <v>4.498546086950839e-210</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>3.997250424180641e-210</v>
+        <v>3.92766299677412e-210</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>3.489039333069271e-210</v>
+        <v>3.425537040456654e-210</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>3.043429561924427e-210</v>
+        <v>2.986805809863974e-210</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>2.65526498034105e-210</v>
+        <v>2.606106896861024e-210</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>2.319389457914078e-210</v>
+        <v>2.278077893312747e-210</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>2.030646864238446e-210</v>
+        <v>1.997356391084087e-210</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>1.783881068909092e-210</v>
+        <v>1.758579982039988e-210</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>1.573935941520956e-210</v>
+        <v>1.556386258045393e-210</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>1.395655351668971e-210</v>
+        <v>1.385412810965246e-210</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>1.243883168948077e-210</v>
+        <v>1.240297232664492e-210</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>1.113463262953211e-210</v>
+        <v>1.115677115008073e-210</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>9.992395032793093e-211</v>
+        <v>1.006190049860934e-210</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>8.961155392145442e-211</v>
+        <v>9.065379966389539e-211</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>8.010756362181809e-211</v>
+        <v>8.136632100845062e-211</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>7.13673954665084e-211</v>
+        <v>7.272750692413989e-211</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>6.336236607153973e-211</v>
+        <v>6.472541620109877e-211</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>5.606379205292642e-211</v>
+        <v>5.734810762946281e-211</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>4.944299002668283e-211</v>
+        <v>5.058363999936748e-211</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>4.347127660882334e-211</v>
+        <v>4.442007210094836e-211</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>3.811996841536232e-211</v>
+        <v>3.884546272434097e-211</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>3.336038206231412e-211</v>
+        <v>3.384787065968081e-211</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>2.91638341656931e-211</v>
+        <v>2.941535469710344e-211</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>2.550164134151363e-211</v>
+        <v>2.553597362674436e-211</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>2.234512020579009e-211</v>
+        <v>2.219778623873912e-211</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>1.96619313196471e-211</v>
+        <v>1.938197037185223e-211</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>1.740150547317593e-211</v>
+        <v>1.703539415895784e-211</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>1.550760285612751e-211</v>
+        <v>1.509425326592309e-211</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>1.392398185436913e-211</v>
+        <v>1.349473996357983e-211</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>1.259440085376812e-211</v>
+        <v>1.217304652275991e-211</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>1.146261824019179e-211</v>
+        <v>1.106536521429518e-211</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>1.047239239950744e-211</v>
+        <v>1.01078883090175e-211</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>9.568947086272368e-212</v>
+        <v>9.238480333912675e-212</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>8.724974933866398e-212</v>
+        <v>8.426352876926154e-212</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>7.937564250711561e-212</v>
+        <v>7.668557494195792e-212</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>7.204651359518049e-212</v>
+        <v>6.963113482689249e-212</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>6.524172582996056e-212</v>
+        <v>6.308040139374189e-212</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>5.894064243855783e-212</v>
+        <v>5.701356761218277e-212</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>5.312262664807966e-212</v>
+        <v>5.141082645189696e-212</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>4.776704168561676e-212</v>
+        <v>4.625237088255028e-212</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>4.285325077827697e-212</v>
+        <v>4.151839387382503e-212</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>3.836061715316223e-212</v>
+        <v>3.718908839539784e-212</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>3.426850403737454e-212</v>
+        <v>3.324464741694536e-212</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>3.055627465801584e-212</v>
+        <v>2.966526390814421e-212</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>2.72032922421881e-212</v>
+        <v>2.643113083867106e-212</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>2.41889200169933e-212</v>
+        <v>2.352244117820253e-212</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>2.149252120953338e-212</v>
+        <v>2.091938789641527e-212</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>1.909345904691033e-212</v>
+        <v>1.860216396298593e-212</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>1.69710967562261e-212</v>
+        <v>1.655096234759114e-212</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>1.510479756458267e-212</v>
+        <v>1.474597601990755e-212</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>1.347392469908199e-212</v>
+        <v>1.316739794961179e-212</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>1.205784138682603e-212</v>
+        <v>1.179542110638052e-212</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>1.083591085491676e-212</v>
+        <v>1.061023845989037e-212</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>9.78749633045614e-213</v>
+        <v>9.592042979817979e-213</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>8.891961040546144e-213</v>
+        <v>8.721027635839998e-213</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>8.128668212288728e-213</v>
+        <v>7.977385397633063e-213</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>7.476981072785863e-213</v>
+        <v>7.341309234873816e-213</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>6.916262849139515e-213</v>
+        <v>6.792992117238905e-213</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>6.425876768451645e-213</v>
+        <v>6.312627014404962e-213</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>5.985186057824225e-213</v>
+        <v>5.880406896048638e-213</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>5.574308518556652e-213</v>
+        <v>5.477248517775291e-213</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>5.184277440631112e-213</v>
+        <v>5.09453874818981e-213</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>4.814341036088296e-213</v>
+        <v>4.731544191265287e-213</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>4.463948262514454e-213</v>
+        <v>4.387724005665418e-213</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>4.132548077495835e-213</v>
+        <v>4.062537350053903e-213</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>3.819589438618684e-213</v>
+        <v>3.755443383094434e-213</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>3.524521303469254e-213</v>
+        <v>3.465901263450712e-213</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>3.246792629633789e-213</v>
+        <v>3.193370149786432e-213</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>2.985852374698537e-213</v>
+        <v>2.937309200765288e-213</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>2.74114949624975e-213</v>
+        <v>2.697177575050981e-213</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>2.512132951873672e-213</v>
+        <v>2.472434431307204e-213</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>2.298251699156553e-213</v>
+        <v>2.262538928197655e-213</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>2.098954695684642e-213</v>
+        <v>2.066950224386032e-213</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>1.913690899044184e-213</v>
+        <v>1.885127478536028e-213</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>1.74190926682143e-213</v>
+        <v>1.716529849311343e-213</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>1.583058756602775e-213</v>
+        <v>1.560616495375817e-213</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>1.43658832597416e-213</v>
+        <v>1.416846575392846e-213</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>1.301946932521993e-213</v>
+        <v>1.284679248026282e-213</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>1.178583533832522e-213</v>
+        <v>1.163573671939823e-213</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>1.065947087491995e-213</v>
+        <v>1.052989005797165e-213</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>9.634865510866597e-214</v>
+        <v>9.523844082620047e-214</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>8.706508822027655e-214</v>
+        <v>8.612190379980389e-214</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>7.868890384265598e-214</v>
+        <v>7.789520536689639e-214</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>7.116499773442906e-214</v>
+        <v>7.050426139384762e-214</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>6.443826565422061e-214</v>
+        <v>6.389498774702724e-214</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>5.845360336065545e-214</v>
+        <v>5.801330029280496e-214</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>5.315590661235836e-214</v>
+        <v>5.280511489755036e-214</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>4.84900711679542e-214</v>
+        <v>4.821634742763314e-214</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>4.440099278606773e-214</v>
+        <v>4.419291374942296e-214</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>4.083356722532381e-214</v>
+        <v>4.068072972928947e-214</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>3.773269024434723e-214</v>
+        <v>3.762571123360234e-214</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>3.504325760176278e-214</v>
+        <v>3.49737741287312e-214</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>3.27101650561953e-214</v>
+        <v>3.267083428104573e-214</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>3.067830836626958e-214</v>
+        <v>3.066280755691558e-214</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>2.889258329061045e-214</v>
+        <v>2.889560982271041e-214</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>2.729788558784271e-214</v>
+        <v>2.731515694479989e-214</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>2.583911101659117e-214</v>
+        <v>2.586736478955365e-214</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>2.44614800206996e-214</v>
+        <v>2.449846848603895e-214</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>2.313042179135531e-214</v>
+        <v>2.31745744072693e-214</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>2.18431147898401e-214</v>
+        <v>2.189300795633658e-214</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>2.059951896659172e-214</v>
+        <v>2.065382957223632e-214</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>1.939959427204796e-214</v>
+        <v>1.945709969396403e-214</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>1.824330065664658e-214</v>
+        <v>1.830287876051524e-214</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>1.713059807082535e-214</v>
+        <v>1.719122721088546e-214</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>1.606144646502203e-214</v>
+        <v>1.612220548407022e-214</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>1.503580578967439e-214</v>
+        <v>1.509587401906503e-214</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>1.40536359952202e-214</v>
+        <v>1.411229325486542e-214</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>1.311489703209723e-214</v>
+        <v>1.317152363046691e-214</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>1.221954885074324e-214</v>
+        <v>1.227362558486501e-214</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>1.1367551401596e-214</v>
+        <v>1.141865955705525e-214</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>1.055886463509328e-214</v>
+        <v>1.060668598603315e-214</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>9.793448501672847e-215</v>
+        <v>9.837765310794224e-215</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>9.071262951773146e-215</v>
+        <v>9.111957970334679e-215</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>8.392267935830544e-215</v>
+        <v>8.429324403648627e-215</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>7.75642340428353e-215</v>
+        <v>7.789925049732316e-215</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>7.163689307569873e-215</v>
+        <v>7.193820347581264e-215</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>6.613990863543657e-215</v>
+        <v>6.641034053447965e-215</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>6.106254103091657e-215</v>
+        <v>6.130534634433618e-215</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>5.638279999250068e-215</v>
+        <v>5.660102330227386e-215</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>5.207809507150496e-215</v>
+        <v>5.227453992738502e-215</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>4.812583581924533e-215</v>
+        <v>4.830306473876184e-215</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>4.450343178703784e-215</v>
+        <v>4.466376625549664e-215</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>4.118829252619846e-215</v>
+        <v>4.133381299668163e-215</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>3.815782758804318e-215</v>
+        <v>3.829037348140909e-215</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>3.538944652388798e-215</v>
+        <v>3.551061622877124e-215</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>3.286055888504889e-215</v>
+        <v>3.297170975786038e-215</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>3.054857422284188e-215</v>
+        <v>3.065082258776873e-215</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>2.843090208858295e-215</v>
+        <v>2.852512323758856e-215</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>2.648495203358809e-215</v>
+        <v>2.657178022641212e-215</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>2.468813360917329e-215</v>
+        <v>2.476796207333166e-215</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>2.301785636665455e-215</v>
+        <v>2.309083729743943e-215</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>2.145174991155543e-215</v>
+        <v>2.151779883941391e-215</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>1.997543932588225e-215</v>
+        <v>2.003439380128579e-215</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>1.858462373481623e-215</v>
+        <v>1.863644326609173e-215</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>1.72756450025002e-215</v>
+        <v>1.732042381216146e-215</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>1.604484499307698e-215</v>
+        <v>1.608281201782471e-215</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>1.488856557068938e-215</v>
+        <v>1.492008446141121e-215</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>1.380314859948024e-215</v>
+        <v>1.382871772125069e-215</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>1.278493594359237e-215</v>
+        <v>1.280518837567288e-215</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>1.18302694671686e-215</v>
+        <v>1.184597300300751e-215</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>1.093549103435175e-215</v>
+        <v>1.094754818158429e-215</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>1.009696026588461e-215</v>
+        <v>1.010640501187885e-215</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>9.311672712049434e-216</v>
+        <v>9.319554686138456e-216</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>8.577419878482755e-216</v>
+        <v>8.584659364688892e-216</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>7.892043538892223e-216</v>
+        <v>7.899422319344788e-216</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>7.253385466985494e-216</v>
+        <v>7.261546821920788e-216</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>6.659287436470227e-216</v>
+        <v>6.668736144231531e-216</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>6.107591221054081e-216</v>
+        <v>6.118693558091657e-216</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>5.596138594444713e-216</v>
+        <v>5.609122335315804e-216</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>5.122771330350222e-216</v>
+        <v>5.137725747719055e-216</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>4.685331202477351e-216</v>
+        <v>4.702207067115134e-216</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>4.281659984534233e-216</v>
+        <v>4.300269565319155e-216</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>3.909599450228528e-216</v>
+        <v>3.92961651414576e-216</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>3.566991373267894e-216</v>
+        <v>3.587951185409587e-216</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>3.251741912054656e-216</v>
+        <v>3.273066907765694e-216</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>2.962111975476582e-216</v>
+        <v>2.983253210216417e-216</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>2.696483996067791e-216</v>
+        <v>2.716969600602749e-216</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>2.453240513890197e-216</v>
+        <v>2.472675737168085e-216</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>2.230764069005713e-216</v>
+        <v>2.248831278155825e-216</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>2.027437201476251e-216</v>
+        <v>2.043895881809368e-216</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>1.841642451363725e-216</v>
+        <v>1.856329206372109e-216</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>1.671762358730048e-216</v>
+        <v>1.684590910087447e-216</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>1.51617946363713e-216</v>
+        <v>1.52714065119878e-216</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>1.373276306146887e-216</v>
+        <v>1.382438087949506e-216</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>1.24143546535081e-216</v>
+        <v>1.248942915535343e-216</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>1.119307068109287e-216</v>
+        <v>1.125368137300058e-216</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>1.006447625212258e-216</v>
+        <v>1.011284900295982e-216</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>9.026053997747659e-217</v>
+        <v>9.064458983196325e-217</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>8.075286549118539e-217</v>
+        <v>8.106038251675222e-217</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>7.20965653738566e-217</v>
+        <v>7.235113746361672e-217</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>6.426581599617493e-217</v>
+        <v>6.44913582983071e-217</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>5.721559886293495e-217</v>
+        <v>5.743293344378197e-217</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>5.087899535742432e-217</v>
+        <v>5.11019488145648e-217</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>4.5187892920772e-217</v>
+        <v>4.542308363423399e-217</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>4.007417899410705e-217</v>
+        <v>4.032101712636801e-217</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>3.547365878658981e-217</v>
+        <v>3.572526767036494e-217</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>3.134528469456425e-217</v>
+        <v>3.159394463025317e-217</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>2.765647975454149e-217</v>
+        <v>2.789562015073959e-217</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>2.437467965890134e-217</v>
+        <v>2.459888200882997e-217</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>2.146732010002363e-217</v>
+        <v>2.167231798153006e-217</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>1.890183677028818e-217</v>
+        <v>1.908451584584562e-217</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>1.664566536207483e-217</v>
+        <v>1.680406337878242e-217</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>1.466624156776338e-217</v>
+        <v>1.479954835734622e-217</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>1.293100107973366e-217</v>
+        <v>1.303955855854278e-217</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>1.140737959036689e-217</v>
+        <v>1.149268175937925e-217</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>1.006281279203872e-217</v>
+        <v>1.012750573685718e-217</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>8.866320872775688e-218</v>
+        <v>8.914088402141791e-218</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>7.800599428466245e-218</v>
+        <v>7.835176047257191e-218</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>6.855336744693206e-218</v>
+        <v>6.880002954273729e-218</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>6.020277460479044e-218</v>
+        <v>6.037855691373023e-218</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>5.285166214850124e-218</v>
+        <v>5.298020826740621e-218</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>4.639747646831833e-218</v>
+        <v>4.649784928561083e-218</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>4.073766395449561e-218</v>
+        <v>4.082434565018977e-218</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>3.576967099728701e-218</v>
+        <v>3.585256304298866e-218</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>3.139094398694642e-218</v>
+        <v>3.147536714585314e-218</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>2.749978988805182e-218</v>
+        <v>2.758653886296826e-218</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>2.40262412275404e-218</v>
+        <v>2.411359929107233e-218</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>2.094056976003818e-218</v>
+        <v>2.1026864017827e-218</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>1.821564076800384e-218</v>
+        <v>1.829940685240235e-218</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>1.58243195338961e-218</v>
+        <v>1.590430160396847e-218</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>1.373947134017365e-218</v>
+        <v>1.381462208169545e-218</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>1.193396146929519e-218</v>
+        <v>1.200344209475338e-218</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>1.038065520371941e-218</v>
+        <v>1.044383545231233e-218</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>9.052417825905015e-219</v>
+        <v>9.108875963542395e-219</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>7.922114618310699e-219</v>
+        <v>7.971637437613665e-219</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>6.96261086339516e-219</v>
+        <v>7.005193683696217e-219</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>6.146771843617094e-219</v>
+        <v>6.182618510960152e-219</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>5.447462841435202e-219</v>
+        <v>5.476985728575543e-219</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>4.837549139308179e-219</v>
+        <v>4.861369145712482e-219</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>4.289903200458308e-219</v>
+        <v>4.308849669795367e-219</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>3.78412724229038e-219</v>
+        <v>3.79916063540026e-219</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>3.319039837460578e-219</v>
+        <v>3.331030930278523e-219</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>2.89686720434423e-219</v>
+        <v>2.906557932959999e-219</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>2.519835561316654e-219</v>
+        <v>2.527839021974531e-219</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>2.190171126753179e-219</v>
+        <v>2.196971575851964e-219</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>1.910100119029127e-219</v>
+        <v>1.916052973122144e-219</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>1.681848756519821e-219</v>
+        <v>1.687180592314914e-219</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>1.504249096754987e-219</v>
+        <v>1.509065353690357e-219</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>1.358816203232373e-219</v>
+        <v>1.363140481985361e-219</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>1.225188618723366e-219</v>
+        <v>1.228988885009533e-219</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>1.099529588326382e-219</v>
+        <v>1.10278053271479e-219</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>9.827008012227889e-220</v>
+        <v>9.854015658478669e-220</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>8.75564274365517e-220</v>
+        <v>8.77738454163708e-220</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>7.789820247082347e-220</v>
+        <v>7.806776674179977e-220</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>6.938160692038248e-220</v>
+        <v>6.951056753656311e-220</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>6.209284248058705e-220</v>
+        <v>6.21908947762208e-220</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>5.611102960812094e-220</v>
+        <v>5.619018860463825e-220</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>5.133806089800378e-220</v>
+        <v>5.140951798636852e-220</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>4.749023638630712e-220</v>
+        <v>4.756106765289515e-220</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>4.42751008155765e-220</v>
+        <v>4.434811175807768e-220</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>4.140019892835744e-220</v>
+        <v>4.147392445577555e-220</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>3.860125714696247e-220</v>
+        <v>3.867051668062936e-220</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>3.581533272972802e-220</v>
+        <v>3.587519586298663e-220</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>3.306707066070538e-220</v>
+        <v>3.311458239444472e-220</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>3.038147537152959e-220</v>
+        <v>3.041566319430628e-220</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>2.778355129383573e-220</v>
+        <v>2.780542518187402e-220</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>2.529821127385883e-220</v>
+        <v>2.53107511356306e-220</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>2.294316495780567e-220</v>
+        <v>2.295033314910943e-220</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>2.072384531592438e-220</v>
+        <v>2.072890363339623e-220</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>1.864448771067251e-220</v>
+        <v>1.864983321202858e-220</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>1.670932750450761e-220</v>
+        <v>1.671649250854403e-220</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>1.492260005988725e-220</v>
+        <v>1.493225214648017e-220</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>1.328805922100104e-220</v>
+        <v>1.33000338522159e-220</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>1.18022104799955e-220</v>
+        <v>1.181600204954408e-220</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>1.045595724658047e-220</v>
+        <v>1.047109860050675e-220</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>9.240057532241329e-221</v>
+        <v>9.256129819121813e-221</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>8.145269348463493e-221</v>
+        <v>8.161902019407135e-221</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>7.162350706732359e-221</v>
+        <v>7.179221515380605e-221</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>6.282059618533333e-221</v>
+        <v>6.298894621060111e-221</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>5.495154095351812e-221</v>
+        <v>5.511727650463532e-221</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>4.792392148673198e-221</v>
+        <v>4.808526917608749e-221</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>4.164545670799243e-221</v>
+        <v>4.180112518456398e-221</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>3.603984971918554e-221</v>
+        <v>3.618891581260412e-221</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>3.106142005103461e-221</v>
+        <v>3.120311068955627e-221</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>2.666794596644539e-221</v>
+        <v>2.680161354026562e-221</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>2.281720572832354e-221</v>
+        <v>2.294232808957738e-221</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>1.94669775995748e-221</v>
+        <v>1.958315806233674e-221</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>1.657503984310486e-221</v>
+        <v>1.668200718338892e-221</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>1.409917072182163e-221</v>
+        <v>1.419677917758133e-221</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>1.199714849862421e-221</v>
+        <v>1.208537776975251e-221</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>1.022675143642648e-221</v>
+        <v>1.03057066847559e-221</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>8.745757798127241e-222</v>
+        <v>8.815669647429753e-222</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>7.511945846637993e-222</v>
+        <v>7.573170382625091e-222</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>6.483093844860521e-222</v>
+        <v>6.53611261518317e-222</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>5.616980055701836e-222</v>
+        <v>5.662400069950505e-222</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>4.871401892281653e-222</v>
+        <v>4.909955525950827e-222</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>4.213264702628451e-222</v>
+        <v>4.24576402217429e-222</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>3.633126871134361e-222</v>
+        <v>3.660345017506458e-222</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>3.12533678692095e-222</v>
+        <v>3.14798896925088e-222</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>2.684242839109781e-222</v>
+        <v>2.702986334711108e-222</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>2.304193416822422e-222</v>
+        <v>2.319627571190696e-222</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>1.979536909180436e-222</v>
+        <v>1.992203135993196e-222</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>1.704621705305392e-222</v>
+        <v>1.715003486422162e-222</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>1.473796194318854e-222</v>
+        <v>1.482319079781146e-222</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>1.281408765342387e-222</v>
+        <v>1.288440373373701e-222</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>1.121807807497557e-222</v>
+        <v>1.127657824503378e-222</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>9.893417099059293e-223</v>
+        <v>9.942618904737314e-223</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>8.783588616890707e-223</v>
+        <v>8.82543028588313e-223</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>7.83207651968546e-223</v>
+        <v>7.867916961506759e-223</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>6.986468562418479e-223</v>
+        <v>7.017124061005551e-223</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>6.22615069480706e-223</v>
+        <v>6.252179215842783e-223</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>5.545356354403229e-223</v>
+        <v>5.56719029654848e-223</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>4.938402764197071e-223</v>
+        <v>4.95634970821544e-223</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>4.399607147178674e-223</v>
+        <v>4.413849855936467e-223</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>3.923286726338124e-223</v>
+        <v>3.933883144804361e-223</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>3.503758724665505e-223</v>
+        <v>3.51064197991192e-223</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>3.135340365150902e-223</v>
+        <v>3.138318766351944e-223</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>2.812348870784403e-223</v>
+        <v>2.811105909217234e-223</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>2.528825858258083e-223</v>
+        <v>2.523059111118336e-223</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>2.2773629795302e-223</v>
+        <v>2.267514882906664e-223</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>2.050076741301249e-223</v>
+        <v>2.03757406035423e-223</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>1.839083374665422e-223</v>
+        <v>1.826337342530559e-223</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>1.636499955845827e-223</v>
+        <v>1.626906131188659e-223</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>1.442045421261997e-223</v>
+        <v>1.438702404122379e-223</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>1.279225752484292e-223</v>
+        <v>1.280826836700868e-223</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>1.147939855388213e-223</v>
+        <v>1.15152313786439e-223</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>1.028460417334201e-223</v>
+        <v>1.031907764058079e-223</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>9.102014832778812e-224</v>
+        <v>9.122181623824714e-224</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>7.981439859113998e-224</v>
+        <v>7.981481938871144e-224</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>6.987085959206139e-224</v>
+        <v>6.9682124020305e-224</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>6.178749567266807e-224</v>
+        <v>6.148822962800997e-224</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>5.543458583443345e-224</v>
+        <v>5.510830814594416e-224</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>5.008541158097129e-224</v>
+        <v>4.976996235641363e-224</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>4.504192338074254e-224</v>
+        <v>4.473108557960777e-224</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>4.012051417104105e-224</v>
+        <v>3.979862811527184e-224</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>3.545844947222056e-224</v>
+        <v>3.512200291340028e-224</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>3.119780065146717e-224</v>
+        <v>3.085575094860476e-224</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>2.743526252192589e-224</v>
+        <v>2.710518969724295e-224</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>2.414353223311577e-224</v>
+        <v>2.384112666884092e-224</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>2.127431975893654e-224</v>
+        <v>2.101160294157527e-224</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>1.877933507328793e-224</v>
+        <v>1.856465959362256e-224</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>1.661028815006966e-224</v>
+        <v>1.644833770315935e-224</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>1.471888896318147e-224</v>
+        <v>1.461067834836222e-224</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>1.305684748652308e-224</v>
+        <v>1.299972260740775e-224</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>1.157587369399423e-224</v>
+        <v>1.156351155847249e-224</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>1.022767755949463e-224</v>
+        <v>1.025008627973301e-224</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>8.969904931303366e-225</v>
+        <v>9.013948031888826e-225</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>7.806194921743395e-225</v>
+        <v>7.859653865496188e-225</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>6.761662215380228e-225</v>
+        <v>6.815133313007865e-225</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>5.8615426849728e-225</v>
+        <v>5.908447799467194e-225</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>5.131072203280061e-225</v>
+        <v>5.16765874991752e-225</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>4.595479487633558e-225</v>
+        <v>4.620820126699113e-225</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>4.265547356262846e-225</v>
+        <v>4.280919642489748e-225</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>4.107315760279986e-225</v>
+        <v>4.114280748930319e-225</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>4.078188414036865e-225</v>
+        <v>4.078219794797812e-225</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>4.135569031885361e-225</v>
+        <v>4.130053128869208e-225</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>4.236861328177357e-225</v>
+        <v>4.227097099921493e-225</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>4.339469017264738e-225</v>
+        <v>4.326668056731653e-225</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>4.40079581349938e-225</v>
+        <v>4.386082348076668e-225</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>4.37824543123317e-225</v>
+        <v>4.362656322733527e-225</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>4.233602974468054e-225</v>
+        <v>4.218083599461463e-225</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>3.977764420449944e-225</v>
+        <v>3.963122493023129e-225</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>3.652465594197641e-225</v>
+        <v>3.639342168321265e-225</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>3.299919671253953e-225</v>
+        <v>3.288788691946573e-225</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>2.962339827164005e-225</v>
+        <v>2.953508130492067e-225</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>2.681747568914249e-225</v>
+        <v>2.675355032211192e-225</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>2.478624220666991e-225</v>
+        <v>2.474660644523768e-225</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>2.332477066395562e-225</v>
+        <v>2.330814287821631e-225</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>2.218223605022826e-225</v>
+        <v>2.218619094662951e-225</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>2.110781335471415e-225</v>
+        <v>2.11287819760567e-225</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>1.985231451035399e-225</v>
+        <v>1.988559414451002e-225</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>1.828769143425304e-225</v>
+        <v>1.832817889654656e-225</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>1.648818465289734e-225</v>
+        <v>1.653160077588798e-225</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>1.454725125591143e-225</v>
+        <v>1.45902572107499e-225</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>1.255834833291984e-225</v>
+        <v>1.259854562934795e-225</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>1.06149329735471e-225</v>
+        <v>1.065086345989774e-225</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>8.810462267417739e-226</v>
+        <v>8.841608130614897e-226</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>7.229877073408833e-226</v>
+        <v>7.256586854179721e-226</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>5.887626667381532e-226</v>
+        <v>5.91050286435389e-226</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>4.763348350211039e-226</v>
+        <v>4.782944990744513e-226</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>3.83643317722858e-226</v>
+        <v>3.853253678155613e-226</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>3.086272203765388e-226</v>
+        <v>3.100769371391204e-226</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>2.492256485152695e-226</v>
+        <v>2.504832515255308e-226</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>2.033777076721729e-226</v>
+        <v>2.044783554551942e-226</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>1.690225033803722e-226</v>
+        <v>1.699962934085125e-226</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>1.440991411729902e-226</v>
+        <v>1.449711098658875e-226</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>1.265467265831503e-226</v>
+        <v>1.27336849307721e-226</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>1.143043651439754e-226</v>
+        <v>1.15027556214415e-226</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>1.053111623885885e-226</v>
+        <v>1.059772750663712e-226</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>9.758714813951385e-227</v>
+        <v>9.820117130642887e-227</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>9.027794317415161e-227</v>
+        <v>9.084273689405084e-227</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>8.335400746850092e-227</v>
+        <v>8.387230762188686e-227</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>7.680474673464844e-227</v>
+        <v>7.727921106313684e-227</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>7.061956668468065e-227</v>
+        <v>7.105277479100076e-227</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>6.47878730306842e-227</v>
+        <v>6.518232637867853e-227</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>5.92990714847456e-227</v>
+        <v>5.965719339937014e-227</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>5.414256775895146e-227</v>
+        <v>5.446670342627552e-227</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>4.930776756538833e-227</v>
+        <v>4.960018403259462e-227</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>4.478407661614278e-227</v>
+        <v>4.504696279152734e-227</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>4.056090062330531e-227</v>
+        <v>4.079636727627764e-227</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>3.66276452989507e-227</v>
+        <v>3.683772506003357e-227</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>3.297371635518072e-227</v>
+        <v>3.316036371601037e-227</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>2.958851950406779e-227</v>
+        <v>2.975361081739376e-227</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>2.646146045771161e-227</v>
+        <v>2.660679393739691e-227</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>2.35819449281893e-227</v>
+        <v>2.370924064921021e-227</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>2.093937862759057e-227</v>
+        <v>2.105027852603681e-227</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>1.852316726800198e-227</v>
+        <v>1.861923514107664e-227</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>1.632271656151013e-227</v>
+        <v>1.640543806752966e-227</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>1.432743222020156e-227</v>
+        <v>1.439821487859579e-227</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>1.252671995616286e-227</v>
+        <v>1.258689314747502e-227</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>1.09099854814806e-227</v>
+        <v>1.096080044736725e-227</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>9.46663450824134e-228</v>
+        <v>9.509264351472456e-228</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>8.186072748531652e-228</v>
+        <v>8.221612432990574e-228</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>7.057705914438108e-228</v>
+        <v>7.087172265121548e-228</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>6.070939718047278e-228</v>
+        <v>6.095271421065327e-228</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>5.215179871445733e-228</v>
+        <v>5.235237474021859e-228</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>4.479832086720043e-228</v>
+        <v>4.496397997191088e-228</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>3.854302075956775e-228</v>
+        <v>3.868080563772958e-228</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>3.327995551242502e-228</v>
+        <v>3.339612746967417e-228</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>2.890318224663794e-228</v>
+        <v>2.900322119974414e-228</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>2.530675808307219e-228</v>
+        <v>2.53953625599389e-228</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>2.23847401425935e-228</v>
+        <v>2.246582728225795e-228</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>2.003118554606754e-228</v>
+        <v>2.010789109870074e-228</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>1.814015141436003e-228</v>
+        <v>1.821482974126672e-228</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>1.660569486833667e-228</v>
+        <v>1.667991894195537e-228</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>1.532187302886315e-228</v>
+        <v>1.539643443276613e-228</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>1.418299765283062e-228</v>
+        <v>1.425790859095932e-228</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>1.311579264776096e-228</v>
+        <v>1.319054169629952e-228</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>1.211081126529889e-228</v>
+        <v>1.21848670255952e-228</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>1.11660646854793e-228</v>
+        <v>1.123893463170315e-228</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>1.02795640883371e-228</v>
+        <v>1.035079456748016e-228</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>9.449320653907188e-229</v>
+        <v>9.51849688578302e-229</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>8.673345562224478e-229</v>
+        <v>8.740091639468507e-229</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>7.949649993323874e-229</v>
+        <v>8.013628881393413e-229</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>7.276245127240276e-229</v>
+        <v>7.337158664414519e-229</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>6.651142144008593e-229</v>
+        <v>6.708731041388616e-229</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>6.072352223664273e-229</v>
+        <v>6.126396065173033e-229</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>5.5378865462406e-229</v>
+        <v>5.588203788622927e-229</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>5.045756291774556e-229</v>
+        <v>5.092204264597173e-229</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>4.593972640299137e-229</v>
+        <v>4.636447545950633e-229</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>4.180546771851e-229</v>
+        <v>4.218983685541862e-229</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>3.803489866463793e-229</v>
+        <v>3.837862736226377e-229</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>3.460813104172845e-229</v>
+        <v>3.491134750861388e-229</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>3.150527665013057e-229</v>
+        <v>3.176849782303682e-229</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>2.870644729019338e-229</v>
+        <v>2.893057883410045e-229</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>2.619175476226591e-229</v>
+        <v>2.637809107037262e-229</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>2.394131086669724e-229</v>
+        <v>2.409153506042122e-229</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>2.193522740383641e-229</v>
+        <v>2.205141133281409e-229</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>2.015361617403248e-229</v>
+        <v>2.02382204161191e-229</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>1.85765889776345e-229</v>
+        <v>1.863246283890412e-229</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>1.718425761499153e-229</v>
+        <v>1.7214639129737e-229</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>1.595673388645264e-229</v>
+        <v>1.596524981718562e-229</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>1.487412959236686e-229</v>
+        <v>1.486479542981783e-229</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>1.391655653308325e-229</v>
+        <v>1.38937764962015e-229</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>1.306460642142928e-229</v>
+        <v>1.303311888593583e-229</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>1.230415398899077e-229</v>
+        <v>1.226843074871999e-229</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>1.162434689935807e-229</v>
+        <v>1.158822099707342e-229</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>1.101438158944893e-229</v>
+        <v>1.098104177076702e-229</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>1.046345449618112e-229</v>
+        <v>1.043544520957171e-229</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>9.960762056472394e-230</v>
+        <v>9.939983453258403e-230</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>9.495500707240516e-230</v>
+        <v>9.483208641598004e-230</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>9.056866885403253e-230</v>
+        <v>9.05367291436143e-230</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>8.634057027878362e-230</v>
+        <v>8.639928411319593e-230</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>8.216267571583605e-230</v>
+        <v>8.230527272243405e-230</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>7.793739076848076e-230</v>
+        <v>7.815123785175516e-230</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>7.365004209459921e-230</v>
+        <v>7.392125159127148e-230</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>6.932549910167386e-230</v>
+        <v>6.964112628196945e-230</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>6.498887472451349e-230</v>
+        <v>6.533693132565696e-230</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>6.06652818979268e-230</v>
+        <v>6.10347361241419e-230</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>5.637983355672261e-230</v>
+        <v>5.676061007923216e-230</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>5.215764263570959e-230</v>
+        <v>5.254062259273563e-230</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>4.802382206969647e-230</v>
+        <v>4.840084306646016e-230</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>4.400348479349206e-230</v>
+        <v>4.436734090221365e-230</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>4.012174374190874e-230</v>
+        <v>4.046618550180768e-230</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>3.640371184974421e-230</v>
+        <v>3.672344626703902e-230</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>3.287450205182159e-230</v>
+        <v>3.316519259973003e-230</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>2.955922728293597e-230</v>
+        <v>2.981749390167482e-230</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>2.648300047790891e-230</v>
+        <v>2.670641957469422e-230</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>2.366665519768981e-230</v>
+        <v>2.385376553578885e-230</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>2.110452676809258e-230</v>
+        <v>2.125486593231978e-230</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>1.878082070969899e-230</v>
+        <v>1.889493904652811e-230</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>1.667972220052637e-230</v>
+        <v>1.675918284608487e-230</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>1.478541641859204e-230</v>
+        <v>1.483279529866105e-230</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>1.308208854191331e-230</v>
+        <v>1.310097437192769e-230</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>1.155392374850751e-230</v>
+        <v>1.15489180335558e-230</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>1.018510721639196e-230</v>
+        <v>1.016182425121639e-230</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>8.959824123583966e-231</v>
+        <v>8.924890992580482e-231</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>7.862443349892012e-231</v>
+        <v>7.823439533777965e-231</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>6.881318573956765e-231</v>
+        <v>6.84546591747119e-231</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>6.008659153843681e-231</v>
+        <v>5.981554282414577e-231</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>5.236832316744058e-231</v>
+        <v>5.222394735837264e-231</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>4.558205289849185e-231</v>
+        <v>4.558677384968385e-231</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>3.965145300350353e-231</v>
+        <v>3.981092337037077e-231</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>3.450019575438856e-231</v>
+        <v>3.480329699272471e-231</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>3.005195342305982e-231</v>
+        <v>3.047079578903705e-231</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>2.623039828143025e-231</v>
+        <v>2.672032083159912e-231</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>2.295921821638462e-231</v>
+        <v>2.345881727126129e-231</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>2.01671916505119e-231</v>
+        <v>2.060760002401731e-231</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>1.779548631990133e-231</v>
+        <v>1.812295704909887e-231</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>1.57871188226222e-231</v>
+        <v>1.59663953463219e-231</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>1.408510575674381e-231</v>
+        <v>1.409942191550237e-231</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>1.263246372033542e-231</v>
+        <v>1.248354375645621e-231</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>1.137220931146633e-231</v>
+        <v>1.108026786899938e-231</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>1.024735912820583e-231</v>
+        <v>9.851101252947815e-232</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>9.205871476926837e-232</v>
+        <v>8.759940341189756e-232</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>8.233682659513907e-232</v>
+        <v>7.789044827437243e-232</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>7.334337609374116e-232</v>
+        <v>6.929188596028806e-232</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>6.511477698577943e-232</v>
+        <v>6.171192161682112e-232</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>5.768744299195874e-232</v>
+        <v>5.505876039114831e-232</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>5.10977878329839e-232</v>
+        <v>4.924060743044639e-232</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>4.538036102541136e-232</v>
+        <v>4.416596020200611e-232</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>4.051003326172678e-232</v>
+        <v>3.975267422562382e-232</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>3.639083207679518e-232</v>
+        <v>3.592971371840466e-232</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>3.292266732930954e-232</v>
+        <v>3.262668857752991e-232</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>3.00054488779925e-232</v>
+        <v>2.977320870020862e-232</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>2.753908658154385e-232</v>
+        <v>2.729888398362803e-232</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>2.542349029867576e-232</v>
+        <v>2.513332432498728e-232</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>2.355856988809725e-232</v>
+        <v>2.320613962148251e-232</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>2.184619213231437e-232</v>
+        <v>2.14482050878916e-232</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>2.023487554462769e-232</v>
+        <v>1.982056024854966e-232</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>1.872072152638408e-232</v>
+        <v>1.831501100966466e-232</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>1.730197465698029e-232</v>
+        <v>1.692474902423322e-232</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>1.597687951581308e-232</v>
+        <v>1.564296594525197e-232</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>1.474368068227922e-232</v>
+        <v>1.446285342571754e-232</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>1.360062273577545e-232</v>
+        <v>1.337760311862655e-232</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>1.254595025569854e-232</v>
+        <v>1.238040667697561e-232</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>1.157790782144524e-232</v>
+        <v>1.146445575376135e-232</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>1.069426046378637e-232</v>
+        <v>1.062301245425015e-232</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>9.889263331913903e-233</v>
+        <v>9.849854533447343e-233</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>9.155611751127174e-233</v>
+        <v>9.138988905879735e-233</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>8.485993969955238e-233</v>
+        <v>8.484423525748761e-233</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>7.873098236927129e-233</v>
+        <v>7.880166347255833e-233</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>7.3096128005719e-233</v>
+        <v>7.320225324602385e-233</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>6.788225909418598e-233</v>
+        <v>6.798608411989832e-233</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>6.301625811996266e-233</v>
+        <v>6.309323563619599e-233</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>5.842500756833948e-233</v>
+        <v>5.84637873369311e-233</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>5.403566342766823e-233</v>
+        <v>5.403804307832985e-233</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>4.980208368887665e-233</v>
+        <v>4.977820643005318e-233</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>4.572686053651669e-233</v>
+        <v>4.568645043116047e-233</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>4.181777258356179e-233</v>
+        <v>4.176920178280477e-233</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>3.808259844298536e-233</v>
+        <v>3.803288718613909e-233</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>3.452911672776077e-233</v>
+        <v>3.448393334231638e-233</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>3.116510605086148e-233</v>
+        <v>3.11287669524897e-233</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>2.799834502526087e-233</v>
+        <v>2.7973814717812e-233</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>2.503661226393238e-233</v>
+        <v>2.502550333943632e-233</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>2.228768228498783e-233</v>
+        <v>2.229025562813736e-233</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>1.975571326086119e-233</v>
+        <v>1.977105863687035e-233</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>1.743461270850043e-233</v>
+        <v>1.746116064556451e-233</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>1.531648442176456e-233</v>
+        <v>1.535209628278364e-233</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>1.339343219452722e-233</v>
+        <v>1.343540017710617e-233</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>1.165756079739887e-233</v>
+        <v>1.170260802825832e-233</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>1.010436272034528e-233</v>
+        <v>1.014897070555078e-233</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>8.740302883526667e-234</v>
+        <v>8.781772081819451e-234</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>7.574063657370595e-234</v>
+        <v>7.610727814509684e-234</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>6.614327412303061e-234</v>
+        <v>6.645553561065246e-234</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>5.869776297966503e-234</v>
+        <v>5.895964754769418e-234</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>5.33431775822281e-234</v>
+        <v>5.35667614075345e-234</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>4.947069163623419e-234</v>
+        <v>4.96677436462738e-234</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>4.634450080899762e-234</v>
+        <v>4.65245405248162e-234</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>4.324393717796533e-234</v>
+        <v>4.341422176889679e-234</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>3.984150713502266e-234</v>
+        <v>4.000669515929497e-234</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>3.62296694619791e-234</v>
+        <v>3.639146170557127e-234</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>3.252138225540047e-234</v>
+        <v>3.267850420015678e-234</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>2.882960361185261e-234</v>
+        <v>2.897780543548263e-234</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>2.526729044839989e-234</v>
+        <v>2.539934728844945e-234</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>2.19393141997894e-234</v>
+        <v>2.204683567461476e-234</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>1.892315473900959e-234</v>
+        <v>1.900271514552847e-234</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>1.629049704851282e-234</v>
+        <v>1.634493225156198e-234</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>1.411190098202113e-234</v>
+        <v>1.415024968627734e-234</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>1.238242467901313e-234</v>
+        <v>1.241598748381705e-234</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>1.097525482789687e-234</v>
+        <v>1.101123293185715e-234</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>9.752507244005183e-235</v>
+        <v>9.793424581246898e-235</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>8.579815682681627e-235</v>
+        <v>8.623635928107713e-235</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>7.408733478834362e-235</v>
+        <v>7.451717698579597e-235</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>6.2796108310602e-235</v>
+        <v>6.319270830251004e-235</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>5.236891284534545e-235</v>
+        <v>5.272125752248459e-235</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>4.315350760295395e-235</v>
+        <v>4.346198728196326e-235</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>3.514451783762457e-235</v>
+        <v>3.541192072601107e-235</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>2.825596098988136e-235</v>
+        <v>2.848541754545e-235</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>2.24018545002484e-235</v>
+        <v>2.259683743110206e-235</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>1.749621580924973e-235</v>
+        <v>1.766054007378925e-235</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>1.345306235740941e-235</v>
+        <v>1.359088516433356e-235</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>1.01864115852515e-235</v>
+        <v>1.0302232393557e-235</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>7.610280933300061e-236</v>
+        <v>7.708941452281558e-236</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>5.638687842080791e-236</v>
+        <v>5.725372031330899e-236</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>4.185519951134212e-236</v>
+        <v>4.265724592429462e-236</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>3.155611657549827e-236</v>
+        <v>3.233093829099345e-236</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>2.438984531379261e-236</v>
+        <v>2.512403285206674e-236</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>1.924771861896486e-236</v>
+        <v>1.987444548541525e-236</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>1.533228838655112e-236</v>
+        <v>1.577454985776649e-236</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>1.234170678590207e-236</v>
+        <v>1.258117545511333e-236</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>1.003283305652571e-236</v>
+        <v>1.010968098922845e-236</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>8.269461282982647e-237</v>
+        <v>8.235721477265735e-237</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>6.963246247894386e-237</v>
+        <v>6.861938680172659e-237</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>6.026067042378072e-237</v>
+        <v>5.891100837534645e-237</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>5.369802757550855e-237</v>
+        <v>5.225976188937119e-237</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>4.906332484529887e-237</v>
+        <v>4.769332973965506e-237</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>4.547601859991596e-237</v>
+        <v>4.42401303753656e-237</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>4.228115465210589e-237</v>
+        <v>4.117810431887134e-237</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>3.937677241228787e-237</v>
+        <v>3.839685239587559e-237</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>3.674409323998981e-237</v>
+        <v>3.587798209624177e-237</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>3.436433849473967e-237</v>
+        <v>3.360310090983335e-237</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>3.221872953606535e-237</v>
+        <v>3.155381632651375e-237</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>3.028848772349479e-237</v>
+        <v>2.97117358361464e-237</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>2.85548344165559e-237</v>
+        <v>2.805846692859474e-237</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>2.699899097477662e-237</v>
+        <v>2.65756170937222e-237</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>2.560217875768486e-237</v>
+        <v>2.524479382139222e-237</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>2.434561912480854e-237</v>
+        <v>2.404760460146822e-237</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>2.321053343567561e-237</v>
+        <v>2.296565692381365e-237</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>2.217814304981397e-237</v>
+        <v>2.198055827829194e-237</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>2.122966932675156e-237</v>
+        <v>2.107391615476652e-237</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>2.03463336260163e-237</v>
+        <v>2.022733804310084e-237</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>1.950935730713611e-237</v>
+        <v>1.942243143315831e-237</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>1.869996172963892e-237</v>
+        <v>1.864080381480238e-237</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>1.789936825305264e-237</v>
+        <v>1.786406267789649e-237</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>1.708879823690523e-237</v>
+        <v>1.707381551230405e-237</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>1.624947304072458e-237</v>
+        <v>1.625166980788852e-237</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>1.53634249538973e-237</v>
+        <v>1.538003857728124e-237</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>1.442788744635525e-237</v>
+        <v>1.445643465574002e-237</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>1.345359446845525e-237</v>
+        <v>1.349178134089972e-237</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>1.24517492586668e-237</v>
+        <v>1.249746808940439e-237</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>1.143355505546036e-237</v>
+        <v>1.14848843578991e-237</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>1.041021509730246e-237</v>
+        <v>1.046541960302494e-237</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>9.392932622666512e-238</v>
+        <v>9.450463281429927e-238</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>8.392910870018096e-238</v>
+        <v>8.451404849754199e-238</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>7.421353077830544e-238</v>
+        <v>7.479633764645679e-238</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>6.489462484570473e-238</v>
+        <v>6.546539482745564e-238</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>5.608442328708329e-238</v>
+        <v>5.66351146069888e-238</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>4.789495848713592e-238</v>
+        <v>4.841939155149687e-238</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>4.043826283055752e-238</v>
+        <v>4.093212022742053e-238</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>3.382636870204289e-238</v>
+        <v>3.428719520120043e-238</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>2.817130848628691e-238</v>
+        <v>2.859851103927724e-238</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>2.358511456798442e-238</v>
+        <v>2.397996230809162e-238</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>2.017981933183026e-238</v>
+        <v>2.05454435740842e-238</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>1.80674551625193e-238</v>
+        <v>1.840884940369567e-238</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>1.736005444474637e-238</v>
+        <v>1.768407436336666e-238</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>1.816964956320633e-238</v>
+        <v>1.848501301953783e-238</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>2.045710775220562e-238</v>
+        <v>2.07734407792938e-238</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>2.22727476941557e-238</v>
+        <v>2.258852695382711e-238</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>2.035737338825297e-238</v>
+        <v>2.065166177454074e-238</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.142623309274729e-238</v>
+        <v>1.16585184486458e-238</v>
       </c>
     </row>
   </sheetData>
